--- a/default_configs/combined_config.xlsx
+++ b/default_configs/combined_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achermann\Project ReFuel\LCA tool developement\Manure Tool\default_configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETH\PHD\Manure Tool\default_configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15F081E-F274-42F2-913A-065EF26BD956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24F7DDE-79D0-4498-880F-7227D2C0D7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50988" yWindow="-1716" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1586,11 +1586,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1874,21 +1873,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q77" sqref="Q77"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" customWidth="1"/>
-    <col min="2" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" customWidth="1"/>
-    <col min="17" max="17" width="84.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" customWidth="1"/>
+    <col min="17" max="17" width="84.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1995,7 +1994,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2055,7 +2054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2075,7 +2074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2135,7 +2134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -2234,7 +2233,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -2342,7 +2341,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>139</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2606,7 +2605,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2729,7 +2728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -2842,7 +2841,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>177</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>57</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2977,10 +2976,10 @@
         <v>152</v>
       </c>
       <c r="F45">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G45">
         <v>1E-4</v>
-      </c>
-      <c r="G45">
-        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
@@ -2993,7 +2992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
@@ -3101,7 +3100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -3308,7 +3307,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>81</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>89</v>
       </c>
@@ -3380,7 +3379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>83</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>85</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -3476,7 +3475,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -3531,7 +3530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -3597,7 +3596,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -3630,17 +3629,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="Q71" s="4" t="s">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q71" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="Q72" s="4" t="s">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q72" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>181</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>182</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>183</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>184</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>185</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -3783,7 +3782,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>187</v>
       </c>
@@ -3796,7 +3795,7 @@
       <c r="H79">
         <v>0.877</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79">
         <v>2</v>
       </c>
       <c r="M79">
@@ -3806,7 +3805,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>188</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>189</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -3887,7 +3886,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>192</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>194</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>195</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>196</v>
       </c>
@@ -4013,7 +4012,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>197</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>198</v>
       </c>
@@ -4063,7 +4062,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>199</v>
       </c>
@@ -4076,7 +4075,7 @@
       <c r="H91">
         <v>0.877</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91">
         <v>2</v>
       </c>
       <c r="M91">
@@ -4086,7 +4085,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>200</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -4140,7 +4139,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>202</v>
       </c>
@@ -4167,7 +4166,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>203</v>
       </c>
@@ -4194,7 +4193,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>205</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>206</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>207</v>
       </c>
@@ -4272,7 +4271,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -4299,7 +4298,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>210</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>211</v>
       </c>
@@ -4362,7 +4361,7 @@
       <c r="H103">
         <v>0.877</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L103">
         <v>2</v>
       </c>
       <c r="M103">
@@ -4372,7 +4371,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>212</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>213</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>214</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>215</v>
       </c>
@@ -4480,7 +4479,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>216</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -4516,7 +4515,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -4534,7 +4533,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>221</v>
       </c>
@@ -4606,7 +4605,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>222</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>223</v>
       </c>
@@ -4642,7 +4641,7 @@
       <c r="H115">
         <v>0.877</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L115">
         <v>2</v>
       </c>
       <c r="M115">
@@ -4652,7 +4651,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>224</v>
       </c>
@@ -4679,7 +4678,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>226</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>228</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>229</v>
       </c>
@@ -4796,7 +4795,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>230</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>231</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>232</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>233</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>234</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>235</v>
       </c>
@@ -4922,7 +4921,7 @@
       <c r="H127">
         <v>0.877</v>
       </c>
-      <c r="L127" s="3">
+      <c r="L127">
         <v>2</v>
       </c>
       <c r="M127">
@@ -4932,7 +4931,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>236</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>237</v>
       </c>
@@ -4986,7 +4985,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>238</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>239</v>
       </c>
@@ -5040,7 +5039,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>240</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>241</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>242</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>243</v>
       </c>
@@ -5112,7 +5111,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>244</v>
       </c>
@@ -5139,7 +5138,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>245</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>246</v>
       </c>
@@ -5189,7 +5188,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>247</v>
       </c>
@@ -5202,7 +5201,7 @@
       <c r="H139">
         <v>0.877</v>
       </c>
-      <c r="L139" s="3">
+      <c r="L139">
         <v>2</v>
       </c>
       <c r="M139">
@@ -5212,7 +5211,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>248</v>
       </c>
@@ -5239,7 +5238,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>249</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>250</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>251</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>252</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>253</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>254</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>255</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>256</v>
       </c>
@@ -5419,7 +5418,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>257</v>
       </c>
@@ -5446,7 +5445,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>258</v>
       </c>
@@ -5469,7 +5468,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>259</v>
       </c>
@@ -5482,7 +5481,7 @@
       <c r="H151">
         <v>0.877</v>
       </c>
-      <c r="L151" s="3">
+      <c r="L151">
         <v>2</v>
       </c>
       <c r="M151">
@@ -5492,7 +5491,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>260</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>261</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>262</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>263</v>
       </c>
@@ -5600,7 +5599,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>264</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>265</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>266</v>
       </c>
@@ -5654,7 +5653,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>267</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>268</v>
       </c>
@@ -5699,7 +5698,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>269</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>270</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>271</v>
       </c>
@@ -5762,7 +5761,7 @@
       <c r="H163">
         <v>0.877</v>
       </c>
-      <c r="L163" s="3">
+      <c r="L163">
         <v>2</v>
       </c>
       <c r="M163">
@@ -5772,7 +5771,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>272</v>
       </c>
@@ -5799,7 +5798,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>273</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>274</v>
       </c>
@@ -5853,7 +5852,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>275</v>
       </c>
@@ -5880,7 +5879,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>276</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>277</v>
       </c>
@@ -5916,7 +5915,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>278</v>
       </c>
@@ -5934,7 +5933,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>279</v>
       </c>
@@ -5952,7 +5951,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>280</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>281</v>
       </c>
@@ -6006,7 +6005,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>282</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>283</v>
       </c>
@@ -6042,7 +6041,7 @@
       <c r="H175">
         <v>0.877</v>
       </c>
-      <c r="L175" s="3">
+      <c r="L175">
         <v>2</v>
       </c>
       <c r="M175">
@@ -6052,7 +6051,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>284</v>
       </c>
@@ -6066,7 +6065,7 @@
         <v>152</v>
       </c>
       <c r="H176">
-        <f t="shared" ref="H175:H237" si="3">B176</f>
+        <f t="shared" ref="H176:H237" si="3">B176</f>
         <v>0.08</v>
       </c>
       <c r="L176">
@@ -6079,7 +6078,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>285</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>286</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>287</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>288</v>
       </c>
@@ -6178,7 +6177,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>289</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>290</v>
       </c>
@@ -6214,7 +6213,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>291</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>292</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>293</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>294</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>295</v>
       </c>
@@ -6322,7 +6321,7 @@
       <c r="H187">
         <v>0.877</v>
       </c>
-      <c r="L187" s="3">
+      <c r="L187">
         <v>2</v>
       </c>
       <c r="M187">
@@ -6332,7 +6331,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>296</v>
       </c>
@@ -6359,7 +6358,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>297</v>
       </c>
@@ -6386,7 +6385,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>298</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>299</v>
       </c>
@@ -6440,7 +6439,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>300</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>301</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>302</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>303</v>
       </c>
@@ -6512,7 +6511,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>304</v>
       </c>
@@ -6539,7 +6538,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>305</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>306</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>307</v>
       </c>
@@ -6602,7 +6601,7 @@
       <c r="H199">
         <v>0.877</v>
       </c>
-      <c r="L199" s="3">
+      <c r="L199">
         <v>2</v>
       </c>
       <c r="M199">
@@ -6612,7 +6611,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>308</v>
       </c>
@@ -6639,7 +6638,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>309</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>310</v>
       </c>
@@ -6693,7 +6692,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>311</v>
       </c>
@@ -6720,7 +6719,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>312</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>313</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>314</v>
       </c>
@@ -6774,7 +6773,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>315</v>
       </c>
@@ -6792,7 +6791,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>316</v>
       </c>
@@ -6819,7 +6818,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>317</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>318</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>319</v>
       </c>
@@ -6882,7 +6881,7 @@
       <c r="H211">
         <v>0.877</v>
       </c>
-      <c r="L211" s="3">
+      <c r="L211">
         <v>2</v>
       </c>
       <c r="M211">
@@ -6892,7 +6891,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>320</v>
       </c>
@@ -6919,7 +6918,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>321</v>
       </c>
@@ -6946,7 +6945,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>322</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>323</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>324</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>325</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>326</v>
       </c>
@@ -7054,7 +7053,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>327</v>
       </c>
@@ -7072,7 +7071,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>328</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>329</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>330</v>
       </c>
@@ -7149,7 +7148,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>331</v>
       </c>
@@ -7162,7 +7161,7 @@
       <c r="H223">
         <v>0.877</v>
       </c>
-      <c r="L223" s="3">
+      <c r="L223">
         <v>2</v>
       </c>
       <c r="M223">
@@ -7172,7 +7171,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>332</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>333</v>
       </c>
@@ -7226,7 +7225,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>334</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>335</v>
       </c>
@@ -7280,7 +7279,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>336</v>
       </c>
@@ -7298,7 +7297,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>337</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>338</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>339</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>340</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>341</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>342</v>
       </c>
@@ -7429,7 +7428,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>343</v>
       </c>
@@ -7442,7 +7441,7 @@
       <c r="H235">
         <v>0.877</v>
       </c>
-      <c r="L235" s="3">
+      <c r="L235">
         <v>2</v>
       </c>
       <c r="M235">
@@ -7452,7 +7451,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>344</v>
       </c>
@@ -7479,7 +7478,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>345</v>
       </c>
@@ -7506,7 +7505,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>346</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>347</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>348</v>
       </c>
@@ -7578,7 +7577,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>349</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>350</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>351</v>
       </c>
@@ -7632,7 +7631,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>352</v>
       </c>
@@ -7659,7 +7658,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>353</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>354</v>
       </c>
@@ -7709,7 +7708,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>355</v>
       </c>
@@ -7722,7 +7721,7 @@
       <c r="H247">
         <v>0.877</v>
       </c>
-      <c r="L247" s="3">
+      <c r="L247">
         <v>2</v>
       </c>
       <c r="M247">
@@ -7732,7 +7731,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>356</v>
       </c>
@@ -7759,7 +7758,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>357</v>
       </c>
@@ -7786,7 +7785,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>358</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>359</v>
       </c>
@@ -7840,7 +7839,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>360</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>361</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>362</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>363</v>
       </c>
@@ -7912,7 +7911,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>364</v>
       </c>
@@ -7939,7 +7938,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>365</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>366</v>
       </c>
@@ -7989,7 +7988,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>367</v>
       </c>
@@ -8002,7 +8001,7 @@
       <c r="H259">
         <v>0.877</v>
       </c>
-      <c r="L259" s="3">
+      <c r="L259">
         <v>2</v>
       </c>
       <c r="M259">
@@ -8012,7 +8011,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>368</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>369</v>
       </c>
@@ -8066,7 +8065,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>370</v>
       </c>
@@ -8093,7 +8092,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>371</v>
       </c>
@@ -8120,7 +8119,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>372</v>
       </c>
@@ -8138,7 +8137,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>373</v>
       </c>
@@ -8156,7 +8155,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>374</v>
       </c>
@@ -8174,7 +8173,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>375</v>
       </c>
@@ -8192,7 +8191,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>376</v>
       </c>
@@ -8219,7 +8218,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>377</v>
       </c>
@@ -8246,7 +8245,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>378</v>
       </c>
@@ -8269,7 +8268,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>379</v>
       </c>
@@ -8282,7 +8281,7 @@
       <c r="H271">
         <v>0.877</v>
       </c>
-      <c r="L271" s="3">
+      <c r="L271">
         <v>2</v>
       </c>
       <c r="M271">
@@ -8292,7 +8291,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>380</v>
       </c>
@@ -8319,7 +8318,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>381</v>
       </c>
@@ -8346,7 +8345,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>382</v>
       </c>
@@ -8373,7 +8372,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>383</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>384</v>
       </c>
@@ -8418,7 +8417,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>385</v>
       </c>
@@ -8436,7 +8435,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>386</v>
       </c>
@@ -8454,7 +8453,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>387</v>
       </c>
@@ -8472,7 +8471,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>388</v>
       </c>
@@ -8499,7 +8498,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>389</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>390</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>391</v>
       </c>
@@ -8562,7 +8561,7 @@
       <c r="H283">
         <v>0.877</v>
       </c>
-      <c r="L283" s="3">
+      <c r="L283">
         <v>2</v>
       </c>
       <c r="M283">
@@ -8572,7 +8571,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>392</v>
       </c>
@@ -8599,7 +8598,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>393</v>
       </c>
@@ -8626,7 +8625,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>394</v>
       </c>
@@ -8653,7 +8652,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>395</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>396</v>
       </c>
@@ -8698,7 +8697,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>397</v>
       </c>
@@ -8716,7 +8715,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>398</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>399</v>
       </c>
@@ -8752,7 +8751,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>400</v>
       </c>
@@ -8779,7 +8778,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>401</v>
       </c>
@@ -8806,7 +8805,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>402</v>
       </c>
@@ -8829,7 +8828,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>403</v>
       </c>
@@ -8842,7 +8841,7 @@
       <c r="H295">
         <v>0.877</v>
       </c>
-      <c r="L295" s="3">
+      <c r="L295">
         <v>2</v>
       </c>
       <c r="M295">
@@ -8852,7 +8851,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>404</v>
       </c>
@@ -8879,7 +8878,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>405</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>406</v>
       </c>
@@ -8933,7 +8932,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>407</v>
       </c>
@@ -8960,7 +8959,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>408</v>
       </c>
@@ -8978,7 +8977,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>409</v>
       </c>
@@ -8996,7 +8995,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>410</v>
       </c>
@@ -9014,7 +9013,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>411</v>
       </c>
@@ -9032,7 +9031,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>412</v>
       </c>
@@ -9059,7 +9058,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>413</v>
       </c>
@@ -9086,7 +9085,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>414</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>415</v>
       </c>
@@ -9122,7 +9121,7 @@
       <c r="H307">
         <v>0.877</v>
       </c>
-      <c r="L307" s="3">
+      <c r="L307">
         <v>2</v>
       </c>
       <c r="M307">
@@ -9132,7 +9131,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>416</v>
       </c>
@@ -9159,7 +9158,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>417</v>
       </c>
@@ -9186,7 +9185,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>418</v>
       </c>
@@ -9213,7 +9212,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>419</v>
       </c>
@@ -9240,7 +9239,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>420</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>421</v>
       </c>
@@ -9276,7 +9275,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>422</v>
       </c>
@@ -9294,7 +9293,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>423</v>
       </c>
@@ -9312,7 +9311,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>424</v>
       </c>
@@ -9339,7 +9338,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>425</v>
       </c>
@@ -9366,7 +9365,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>426</v>
       </c>
@@ -9389,7 +9388,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>427</v>
       </c>
@@ -9402,7 +9401,7 @@
       <c r="H319">
         <v>0.877</v>
       </c>
-      <c r="L319" s="3">
+      <c r="L319">
         <v>2</v>
       </c>
       <c r="M319">
@@ -9412,7 +9411,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>428</v>
       </c>
@@ -9439,7 +9438,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>429</v>
       </c>
@@ -9466,7 +9465,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>430</v>
       </c>
@@ -9493,7 +9492,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>431</v>
       </c>
@@ -9520,7 +9519,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>432</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>433</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>434</v>
       </c>
@@ -9574,7 +9573,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>435</v>
       </c>
@@ -9592,7 +9591,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>436</v>
       </c>
@@ -9619,7 +9618,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>437</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>438</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>439</v>
       </c>
@@ -9679,7 +9678,7 @@
       <c r="H331">
         <v>0.877</v>
       </c>
-      <c r="L331" s="3">
+      <c r="L331">
         <v>2</v>
       </c>
       <c r="M331">
@@ -9689,7 +9688,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>440</v>
       </c>
@@ -9716,7 +9715,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>441</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>442</v>
       </c>
@@ -9767,7 +9766,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>443</v>
       </c>
@@ -9791,7 +9790,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>444</v>
       </c>
@@ -9809,7 +9808,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>445</v>
       </c>
@@ -9827,7 +9826,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>446</v>
       </c>
@@ -9845,7 +9844,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>447</v>
       </c>
@@ -9863,7 +9862,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>448</v>
       </c>
@@ -9890,7 +9889,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>449</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>450</v>
       </c>
@@ -9937,7 +9936,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>451</v>
       </c>
@@ -9950,7 +9949,7 @@
       <c r="H343">
         <v>0.877</v>
       </c>
-      <c r="L343" s="3">
+      <c r="L343">
         <v>2</v>
       </c>
       <c r="M343">
@@ -9960,7 +9959,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>452</v>
       </c>
@@ -9987,7 +9986,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>453</v>
       </c>
@@ -10014,7 +10013,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>454</v>
       </c>
@@ -10038,7 +10037,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>455</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>456</v>
       </c>
@@ -10080,7 +10079,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>457</v>
       </c>
@@ -10098,7 +10097,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>458</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>459</v>
       </c>
@@ -10134,7 +10133,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>460</v>
       </c>
@@ -10158,7 +10157,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>461</v>
       </c>
@@ -10185,7 +10184,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>462</v>
       </c>
@@ -10208,7 +10207,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>463</v>
       </c>
@@ -10221,7 +10220,7 @@
       <c r="H355">
         <v>0.877</v>
       </c>
-      <c r="L355" s="3">
+      <c r="L355">
         <v>2</v>
       </c>
       <c r="M355">
@@ -10231,7 +10230,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>464</v>
       </c>
@@ -10255,7 +10254,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>465</v>
       </c>
@@ -10279,7 +10278,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>466</v>
       </c>
@@ -10306,7 +10305,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>467</v>
       </c>
@@ -10333,7 +10332,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>468</v>
       </c>
@@ -10351,7 +10350,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>469</v>
       </c>
@@ -10369,7 +10368,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>470</v>
       </c>
@@ -10387,7 +10386,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>471</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>472</v>
       </c>
@@ -10429,7 +10428,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>473</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>474</v>
       </c>
@@ -10479,7 +10478,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>475</v>
       </c>
@@ -10492,7 +10491,7 @@
       <c r="H367">
         <v>0.877</v>
       </c>
-      <c r="L367" s="3">
+      <c r="L367">
         <v>2</v>
       </c>
       <c r="M367">
@@ -10502,7 +10501,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>476</v>
       </c>
@@ -10516,7 +10515,7 @@
         <v>152</v>
       </c>
       <c r="H368">
-        <f t="shared" ref="H367:H384" si="6">B368</f>
+        <f t="shared" ref="H368:H384" si="6">B368</f>
         <v>0</v>
       </c>
       <c r="M368">
@@ -10526,7 +10525,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>477</v>
       </c>
@@ -10550,7 +10549,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>478</v>
       </c>
@@ -10577,7 +10576,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>479</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>480</v>
       </c>
@@ -10622,7 +10621,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>481</v>
       </c>
@@ -10640,7 +10639,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>482</v>
       </c>
@@ -10658,7 +10657,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>483</v>
       </c>
@@ -10676,7 +10675,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>484</v>
       </c>
@@ -10700,7 +10699,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>485</v>
       </c>
@@ -10727,7 +10726,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>486</v>
       </c>
@@ -10750,7 +10749,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>487</v>
       </c>
@@ -10763,7 +10762,7 @@
       <c r="H379">
         <v>0.877</v>
       </c>
-      <c r="L379" s="3">
+      <c r="L379">
         <v>2</v>
       </c>
       <c r="M379">
@@ -10773,7 +10772,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>488</v>
       </c>
@@ -10797,7 +10796,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>489</v>
       </c>
@@ -10821,7 +10820,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>490</v>
       </c>
@@ -10848,7 +10847,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>491</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>492</v>
       </c>
